--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>year</t>
   </si>
@@ -36,50 +36,27 @@
     <t>value_plan_result</t>
   </si>
   <si>
+    <t>contoh task weekly non</t>
+  </si>
+  <si>
     <t>NON</t>
   </si>
   <si>
-    <t>Audit Mutasi Bank Harian.</t>
-  </si>
-  <si>
-    <t>Audit Pembelian.</t>
-  </si>
-  <si>
-    <t>Audit Laporan Keuangan.</t>
-  </si>
-  <si>
-    <t>Audit Retur Supplier.</t>
-  </si>
-  <si>
-    <t>Audit Kas Besar Cirebon.</t>
-  </si>
-  <si>
-    <t>Audit Biaya.</t>
-  </si>
-  <si>
-    <t>Audit AR.</t>
-  </si>
-  <si>
-    <t>Pengiriman rencana kerja &amp; realisasi todolist tepat waktu.</t>
+    <t>contoh task weekly result</t>
+  </si>
+  <si>
+    <t>RESULT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,10 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,150 +385,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="2">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="2">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="2">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="2">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="2">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="2">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="2">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="E3">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -141,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +418,7 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -432,7 +432,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogja3\Downloads\Dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -36,22 +36,55 @@
     <t>value_plan_result</t>
   </si>
   <si>
-    <t>contoh task weekly non</t>
-  </si>
-  <si>
     <t>NON</t>
   </si>
   <si>
-    <t>contoh task weekly result</t>
-  </si>
-  <si>
-    <t>RESULT</t>
+    <t>Proses retur orderan online</t>
+  </si>
+  <si>
+    <t>Konfirmasi harga atau warna orderan ONLINE Bilamana ada ketidak sesuaian</t>
+  </si>
+  <si>
+    <t>Konfirmasi barang returan outlet grosir dan online via group dan Proses sistem CSA WIN</t>
+  </si>
+  <si>
+    <t>Pembuatan surat serah terima barang orderan online</t>
+  </si>
+  <si>
+    <t>Proses packing orderan online</t>
+  </si>
+  <si>
+    <t>Proses pembuatan surat jalan (SJ) di csa Win prncpel dan online</t>
+  </si>
+  <si>
+    <t>Pembuatan sales order (SO) di csa Win prncpel dan online</t>
+  </si>
+  <si>
+    <t>Print orderan GOLJKT File PDF</t>
+  </si>
+  <si>
+    <t>Stock Opname &amp; beres gudang ON-GOLJKT ON-GJKT G01ACC</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Ketepatan dan kecepatan dalam proses input semua transaksi max 2x kesalahan</t>
+  </si>
+  <si>
+    <t>Kesesuaian fisik di gudang dgn stock di sistem CSA</t>
+  </si>
+  <si>
+    <t>Penjualan 5JT Sehari atau 5 Resi Sehari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,63 +419,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>10000</v>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogja3\Downloads\Dnd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="18855" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -39,52 +34,46 @@
     <t>NON</t>
   </si>
   <si>
-    <t>Proses retur orderan online</t>
-  </si>
-  <si>
-    <t>Konfirmasi harga atau warna orderan ONLINE Bilamana ada ketidak sesuaian</t>
-  </si>
-  <si>
-    <t>Konfirmasi barang returan outlet grosir dan online via group dan Proses sistem CSA WIN</t>
-  </si>
-  <si>
-    <t>Pembuatan surat serah terima barang orderan online</t>
-  </si>
-  <si>
-    <t>Proses packing orderan online</t>
-  </si>
-  <si>
-    <t>Proses pembuatan surat jalan (SJ) di csa Win prncpel dan online</t>
-  </si>
-  <si>
-    <t>Pembuatan sales order (SO) di csa Win prncpel dan online</t>
-  </si>
-  <si>
-    <t>Print orderan GOLJKT File PDF</t>
-  </si>
-  <si>
-    <t>Stock Opname &amp; beres gudang ON-GOLJKT ON-GJKT G01ACC</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Ketepatan dan kecepatan dalam proses input semua transaksi max 2x kesalahan</t>
-  </si>
-  <si>
-    <t>Kesesuaian fisik di gudang dgn stock di sistem CSA</t>
-  </si>
-  <si>
-    <t>Penjualan 5JT Sehari atau 5 Resi Sehari</t>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>Mystery shopper toko retail</t>
+  </si>
+  <si>
+    <t>Monitoring dan follow up Rekapitulasi Finding status open, closed dan on progress</t>
+  </si>
+  <si>
+    <t>Review pelaksanaan audit sesuai jadwal</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Review audit CV Maju Tecnology</t>
+  </si>
+  <si>
+    <t>Review audit realisasi &amp; bundling</t>
+  </si>
+  <si>
+    <t>Review audit buku customer &amp; buku COD</t>
+  </si>
+  <si>
+    <t>Follow up kasus CS Tuparev, CS Patrol, AutoEV Rengasdengklok</t>
+  </si>
+  <si>
+    <t>Pengiriman rencana kerja &amp; realisasi todolist tepat waktu</t>
+  </si>
+  <si>
+    <t>Review audit Kas, Bank &amp; Biaya</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,9 +113,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -175,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,18 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -455,13 +441,16 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,13 +458,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -483,13 +475,16 @@
         <v>2023</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,10 +492,10 @@
         <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -511,10 +506,10 @@
         <v>2023</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -525,10 +520,10 @@
         <v>2023</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -539,10 +534,10 @@
         <v>2023</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -553,10 +548,10 @@
         <v>2023</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -567,54 +562,12 @@
         <v>2023</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -49,25 +49,22 @@
     <t>100</t>
   </si>
   <si>
-    <t>Review audit CV Maju Tecnology</t>
-  </si>
-  <si>
     <t>Review audit realisasi &amp; bundling</t>
   </si>
   <si>
     <t>Review audit buku customer &amp; buku COD</t>
   </si>
   <si>
-    <t>Follow up kasus CS Tuparev, CS Patrol, AutoEV Rengasdengklok</t>
-  </si>
-  <si>
     <t>Pengiriman rencana kerja &amp; realisasi todolist tepat waktu</t>
   </si>
   <si>
     <t>Review audit Kas, Bank &amp; Biaya</t>
   </si>
   <si>
-    <t>38</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Follow up kasus CS Tuparev &amp; CS Patrol</t>
   </si>
 </sst>
 </file>
@@ -405,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +438,7 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -458,7 +455,7 @@
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -475,7 +472,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -492,10 +489,10 @@
         <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -506,10 +503,10 @@
         <v>2023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -520,7 +517,7 @@
         <v>2023</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -534,10 +531,10 @@
         <v>2023</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -548,26 +545,12 @@
         <v>2023</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/public/import/weekly_template.xlsx
+++ b/public/import/weekly_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -61,21 +61,30 @@
     <t>Review audit Kas, Bank &amp; Biaya</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Follow up kasus CS Tuparev &amp; CS Patrol</t>
+    <t>Follow up kasus CS Tuparev, CS Patrol, CS Jatiwangi</t>
+  </si>
+  <si>
+    <t>Review visit outlet distribution sales</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,8 +447,8 @@
       <c r="A2" s="1">
         <v>2023</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -454,8 +464,8 @@
       <c r="A3" s="1">
         <v>2023</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -471,11 +481,11 @@
       <c r="A4" s="1">
         <v>2023</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -488,25 +498,28 @@
       <c r="A5" s="1">
         <v>2023</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2023</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -516,11 +529,11 @@
       <c r="A7" s="1">
         <v>2023</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -530,11 +543,11 @@
       <c r="A8" s="1">
         <v>2023</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -544,18 +557,33 @@
       <c r="A9" s="1">
         <v>2023</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>